--- a/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Premiership_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,9 @@
     <t>['30', '41', '54']</t>
   </si>
   <si>
+    <t>['38', '45', '80']</t>
+  </si>
+  <si>
     <t>['45+1', '90+4']</t>
   </si>
   <si>
@@ -872,6 +875,12 @@
   </si>
   <si>
     <t>['34']</t>
+  </si>
+  <si>
+    <t>['26', '73']</t>
+  </si>
+  <si>
+    <t>['17', '20', '90+2', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK182"/>
+  <dimension ref="A1:BK185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1668,7 +1677,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1758,7 +1767,7 @@
         <v>1.38</v>
       </c>
       <c r="AT3">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1859,7 +1868,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2050,7 +2059,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2241,7 +2250,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -2522,7 +2531,7 @@
         <v>2.2</v>
       </c>
       <c r="AT7">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2623,7 +2632,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2710,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>1.13</v>
@@ -2814,7 +2823,7 @@
         <v>77</v>
       </c>
       <c r="P9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3005,7 +3014,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3196,7 +3205,7 @@
         <v>77</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3283,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT11">
         <v>0.71</v>
@@ -3387,7 +3396,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3477,7 +3486,7 @@
         <v>2.6</v>
       </c>
       <c r="AT12">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3578,7 +3587,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3665,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AT13">
         <v>1.81</v>
@@ -3769,7 +3778,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3960,7 +3969,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4151,7 +4160,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4241,7 +4250,7 @@
         <v>2.67</v>
       </c>
       <c r="AT16">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4342,7 +4351,7 @@
         <v>77</v>
       </c>
       <c r="P17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4429,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT17">
         <v>1.69</v>
@@ -4533,7 +4542,7 @@
         <v>77</v>
       </c>
       <c r="P18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4915,7 +4924,7 @@
         <v>91</v>
       </c>
       <c r="P20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5005,7 +5014,7 @@
         <v>2.06</v>
       </c>
       <c r="AT20">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5106,7 +5115,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5297,7 +5306,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -5384,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AT22">
         <v>1.13</v>
@@ -5488,7 +5497,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5679,7 +5688,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5870,7 +5879,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6061,7 +6070,7 @@
         <v>77</v>
       </c>
       <c r="P26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6148,7 +6157,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT26">
         <v>1.6</v>
@@ -6252,7 +6261,7 @@
         <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6443,7 +6452,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6533,7 +6542,7 @@
         <v>1.31</v>
       </c>
       <c r="AT28">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6721,7 +6730,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT29">
         <v>0.67</v>
@@ -6825,7 +6834,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -7103,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AT31">
         <v>0.25</v>
@@ -7207,7 +7216,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7485,7 +7494,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT33">
         <v>1.6</v>
@@ -7589,7 +7598,7 @@
         <v>77</v>
       </c>
       <c r="P34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7780,7 +7789,7 @@
         <v>77</v>
       </c>
       <c r="P35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -7870,7 +7879,7 @@
         <v>1.38</v>
       </c>
       <c r="AT35">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -8631,10 +8640,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT39">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8926,7 +8935,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9016,7 +9025,7 @@
         <v>0.73</v>
       </c>
       <c r="AT41">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -9395,7 +9404,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT43">
         <v>1.81</v>
@@ -9499,7 +9508,7 @@
         <v>108</v>
       </c>
       <c r="P44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9881,7 +9890,7 @@
         <v>77</v>
       </c>
       <c r="P46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9968,7 +9977,7 @@
         <v>2.5</v>
       </c>
       <c r="AS46">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AT46">
         <v>2.19</v>
@@ -10159,10 +10168,10 @@
         <v>1.33</v>
       </c>
       <c r="AS47">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT47">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -10926,7 +10935,7 @@
         <v>1.38</v>
       </c>
       <c r="AT51">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -11027,7 +11036,7 @@
         <v>77</v>
       </c>
       <c r="P52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11409,7 +11418,7 @@
         <v>114</v>
       </c>
       <c r="P54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11499,7 +11508,7 @@
         <v>2.67</v>
       </c>
       <c r="AT54">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -11982,7 +11991,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12173,7 +12182,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12263,7 +12272,7 @@
         <v>2.2</v>
       </c>
       <c r="AT58">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU58">
         <v>0</v>
@@ -12451,7 +12460,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT59">
         <v>0.71</v>
@@ -12555,7 +12564,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12836,7 +12845,7 @@
         <v>2.67</v>
       </c>
       <c r="AT61">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AU61">
         <v>0</v>
@@ -12937,7 +12946,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13128,7 +13137,7 @@
         <v>77</v>
       </c>
       <c r="P63" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13215,7 +13224,7 @@
         <v>2.5</v>
       </c>
       <c r="AS63">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AT63">
         <v>1.69</v>
@@ -13319,7 +13328,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13409,7 +13418,7 @@
         <v>1.31</v>
       </c>
       <c r="AT64">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -13597,7 +13606,7 @@
         <v>2.67</v>
       </c>
       <c r="AS65">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT65">
         <v>2.19</v>
@@ -13701,7 +13710,7 @@
         <v>125</v>
       </c>
       <c r="P66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13892,7 +13901,7 @@
         <v>77</v>
       </c>
       <c r="P67" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -13979,7 +13988,7 @@
         <v>1.67</v>
       </c>
       <c r="AS67">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AT67">
         <v>1.81</v>
@@ -14083,7 +14092,7 @@
         <v>77</v>
       </c>
       <c r="P68" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -14170,7 +14179,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT68">
         <v>1.13</v>
@@ -14364,7 +14373,7 @@
         <v>2.6</v>
       </c>
       <c r="AT69">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU69">
         <v>0</v>
@@ -14555,7 +14564,7 @@
         <v>2.06</v>
       </c>
       <c r="AT70">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AU70">
         <v>0</v>
@@ -14847,7 +14856,7 @@
         <v>129</v>
       </c>
       <c r="P72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15038,7 +15047,7 @@
         <v>77</v>
       </c>
       <c r="P73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15229,7 +15238,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15316,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT74">
         <v>0.25</v>
@@ -15420,7 +15429,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15510,7 +15519,7 @@
         <v>2.6</v>
       </c>
       <c r="AT75">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU75">
         <v>0</v>
@@ -15802,7 +15811,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15993,7 +16002,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16465,7 +16474,7 @@
         <v>1.44</v>
       </c>
       <c r="AT80">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AU80">
         <v>0</v>
@@ -16757,7 +16766,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16844,7 +16853,7 @@
         <v>0.8</v>
       </c>
       <c r="AS82">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AT82">
         <v>0.71</v>
@@ -17139,7 +17148,7 @@
         <v>77</v>
       </c>
       <c r="P84" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17226,7 +17235,7 @@
         <v>1.86</v>
       </c>
       <c r="AS84">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT84">
         <v>1.53</v>
@@ -17330,7 +17339,7 @@
         <v>137</v>
       </c>
       <c r="P85" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17420,7 +17429,7 @@
         <v>2.2</v>
       </c>
       <c r="AT85">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU85">
         <v>0</v>
@@ -17521,7 +17530,7 @@
         <v>77</v>
       </c>
       <c r="P86" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q86">
         <v>-1</v>
@@ -17799,10 +17808,10 @@
         <v>0.67</v>
       </c>
       <c r="AS87">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AT87">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU87">
         <v>0</v>
@@ -17903,7 +17912,7 @@
         <v>77</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18094,7 +18103,7 @@
         <v>77</v>
       </c>
       <c r="P89" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18757,7 +18766,7 @@
         <v>1.44</v>
       </c>
       <c r="AT92">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AU92">
         <v>0</v>
@@ -19049,7 +19058,7 @@
         <v>77</v>
       </c>
       <c r="P94" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19136,7 +19145,7 @@
         <v>2</v>
       </c>
       <c r="AS94">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT94">
         <v>1.53</v>
@@ -19431,7 +19440,7 @@
         <v>77</v>
       </c>
       <c r="P96" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19622,7 +19631,7 @@
         <v>77</v>
       </c>
       <c r="P97" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20091,10 +20100,10 @@
         <v>0.86</v>
       </c>
       <c r="AS99">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT99">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU99">
         <v>0</v>
@@ -20195,7 +20204,7 @@
         <v>77</v>
       </c>
       <c r="P100" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20577,7 +20586,7 @@
         <v>77</v>
       </c>
       <c r="P102" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -21150,7 +21159,7 @@
         <v>146</v>
       </c>
       <c r="P105" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21341,7 +21350,7 @@
         <v>147</v>
       </c>
       <c r="P106" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21431,7 +21440,7 @@
         <v>2.2</v>
       </c>
       <c r="AT106">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU106">
         <v>0</v>
@@ -21532,7 +21541,7 @@
         <v>148</v>
       </c>
       <c r="P107" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -21619,10 +21628,10 @@
         <v>0</v>
       </c>
       <c r="AS107">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AT107">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AU107">
         <v>0</v>
@@ -21914,7 +21923,7 @@
         <v>150</v>
       </c>
       <c r="P109" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22001,10 +22010,10 @@
         <v>0.5</v>
       </c>
       <c r="AS109">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT109">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU109">
         <v>0</v>
@@ -22768,7 +22777,7 @@
         <v>2.6</v>
       </c>
       <c r="AT113">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AU113">
         <v>0</v>
@@ -23060,7 +23069,7 @@
         <v>156</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q115">
         <v>1</v>
@@ -23147,7 +23156,7 @@
         <v>2.11</v>
       </c>
       <c r="AS115">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT115">
         <v>1.81</v>
@@ -23338,7 +23347,7 @@
         <v>0.6</v>
       </c>
       <c r="AS116">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT116">
         <v>0.67</v>
@@ -23824,7 +23833,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>-1</v>
@@ -23914,7 +23923,7 @@
         <v>1.31</v>
       </c>
       <c r="AT119">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AU119">
         <v>0</v>
@@ -24105,7 +24114,7 @@
         <v>2.27</v>
       </c>
       <c r="AT120">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU120">
         <v>1.7</v>
@@ -24397,7 +24406,7 @@
         <v>77</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24970,7 +24979,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25161,7 +25170,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25248,7 +25257,7 @@
         <v>1.7</v>
       </c>
       <c r="AS126">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AT126">
         <v>1.6</v>
@@ -25352,7 +25361,7 @@
         <v>164</v>
       </c>
       <c r="P127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25734,7 +25743,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25925,7 +25934,7 @@
         <v>77</v>
       </c>
       <c r="P130" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26012,7 +26021,7 @@
         <v>2</v>
       </c>
       <c r="AS130">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT130">
         <v>2.19</v>
@@ -26498,7 +26507,7 @@
         <v>169</v>
       </c>
       <c r="P133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26779,7 +26788,7 @@
         <v>2.06</v>
       </c>
       <c r="AT134">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AU134">
         <v>0.75</v>
@@ -26880,7 +26889,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27071,7 +27080,7 @@
         <v>117</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27158,7 +27167,7 @@
         <v>1.55</v>
       </c>
       <c r="AS136">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AT136">
         <v>1.69</v>
@@ -27262,7 +27271,7 @@
         <v>172</v>
       </c>
       <c r="P137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27349,10 +27358,10 @@
         <v>0.75</v>
       </c>
       <c r="AS137">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT137">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU137">
         <v>2.33</v>
@@ -28113,7 +28122,7 @@
         <v>0.08</v>
       </c>
       <c r="AS141">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT141">
         <v>0.25</v>
@@ -28307,7 +28316,7 @@
         <v>2.27</v>
       </c>
       <c r="AT142">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AU142">
         <v>1.49</v>
@@ -28498,7 +28507,7 @@
         <v>2.06</v>
       </c>
       <c r="AT143">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU143">
         <v>1.46</v>
@@ -28599,7 +28608,7 @@
         <v>177</v>
       </c>
       <c r="P144" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29172,7 +29181,7 @@
         <v>179</v>
       </c>
       <c r="P147" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29363,7 +29372,7 @@
         <v>77</v>
       </c>
       <c r="P148" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29450,7 +29459,7 @@
         <v>1.75</v>
       </c>
       <c r="AS148">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT148">
         <v>1.6</v>
@@ -29554,7 +29563,7 @@
         <v>143</v>
       </c>
       <c r="P149" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29644,7 +29653,7 @@
         <v>1.44</v>
       </c>
       <c r="AT149">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU149">
         <v>1.28</v>
@@ -29832,7 +29841,7 @@
         <v>2.08</v>
       </c>
       <c r="AS150">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AT150">
         <v>2.19</v>
@@ -30023,7 +30032,7 @@
         <v>1.25</v>
       </c>
       <c r="AS151">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT151">
         <v>1.13</v>
@@ -30217,7 +30226,7 @@
         <v>2.27</v>
       </c>
       <c r="AT152">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU152">
         <v>1.48</v>
@@ -30318,7 +30327,7 @@
         <v>77</v>
       </c>
       <c r="P153" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q153">
         <v>5</v>
@@ -30405,10 +30414,10 @@
         <v>0.45</v>
       </c>
       <c r="AS153">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AT153">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU153">
         <v>1.06</v>
@@ -30599,7 +30608,7 @@
         <v>1.38</v>
       </c>
       <c r="AT154">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AU154">
         <v>1.42</v>
@@ -30700,7 +30709,7 @@
         <v>182</v>
       </c>
       <c r="P155" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -31464,7 +31473,7 @@
         <v>77</v>
       </c>
       <c r="P159" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q159">
         <v>1</v>
@@ -31551,7 +31560,7 @@
         <v>2</v>
       </c>
       <c r="AS159">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT159">
         <v>2.19</v>
@@ -31655,7 +31664,7 @@
         <v>186</v>
       </c>
       <c r="P160" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q160">
         <v>-1</v>
@@ -31933,7 +31942,7 @@
         <v>2</v>
       </c>
       <c r="AS161">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT161">
         <v>1.81</v>
@@ -32127,7 +32136,7 @@
         <v>2.6</v>
       </c>
       <c r="AT162">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="AU162">
         <v>1.64</v>
@@ -32419,7 +32428,7 @@
         <v>189</v>
       </c>
       <c r="P164" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32610,7 +32619,7 @@
         <v>77</v>
       </c>
       <c r="P165" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32697,7 +32706,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AS165">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AT165">
         <v>0.25</v>
@@ -33273,7 +33282,7 @@
         <v>2.2</v>
       </c>
       <c r="AT168">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU168">
         <v>1.82</v>
@@ -33374,7 +33383,7 @@
         <v>193</v>
       </c>
       <c r="P169" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33464,7 +33473,7 @@
         <v>0.73</v>
       </c>
       <c r="AT169">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU169">
         <v>1.13</v>
@@ -33565,7 +33574,7 @@
         <v>77</v>
       </c>
       <c r="P170" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q170">
         <v>1</v>
@@ -33756,7 +33765,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -33947,7 +33956,7 @@
         <v>195</v>
       </c>
       <c r="P172" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q172">
         <v>2</v>
@@ -34138,7 +34147,7 @@
         <v>77</v>
       </c>
       <c r="P173" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34711,7 +34720,7 @@
         <v>197</v>
       </c>
       <c r="P176" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q176">
         <v>-1</v>
@@ -34989,10 +34998,10 @@
         <v>0.58</v>
       </c>
       <c r="AS177">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT177">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU177">
         <v>1.24</v>
@@ -35093,7 +35102,7 @@
         <v>198</v>
       </c>
       <c r="P178" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q178">
         <v>-1</v>
@@ -35183,7 +35192,7 @@
         <v>0.73</v>
       </c>
       <c r="AT178">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU178">
         <v>1.47</v>
@@ -35371,10 +35380,10 @@
         <v>0.62</v>
       </c>
       <c r="AS179">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AT179">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU179">
         <v>1.14</v>
@@ -35666,7 +35675,7 @@
         <v>199</v>
       </c>
       <c r="P181" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q181">
         <v>2</v>
@@ -35857,7 +35866,7 @@
         <v>200</v>
       </c>
       <c r="P182" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q182">
         <v>5</v>
@@ -35999,6 +36008,579 @@
       </c>
       <c r="BK182">
         <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2515459</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F183">
+        <v>31</v>
+      </c>
+      <c r="G183" t="s">
+        <v>71</v>
+      </c>
+      <c r="H183" t="s">
+        <v>73</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>2</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>77</v>
+      </c>
+      <c r="P183" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q183">
+        <v>-1</v>
+      </c>
+      <c r="R183">
+        <v>-1</v>
+      </c>
+      <c r="S183">
+        <v>-1</v>
+      </c>
+      <c r="T183">
+        <v>1.75</v>
+      </c>
+      <c r="U183">
+        <v>2.52</v>
+      </c>
+      <c r="V183">
+        <v>7.2</v>
+      </c>
+      <c r="W183">
+        <v>1.29</v>
+      </c>
+      <c r="X183">
+        <v>3.42</v>
+      </c>
+      <c r="Y183">
+        <v>2.36</v>
+      </c>
+      <c r="Z183">
+        <v>1.55</v>
+      </c>
+      <c r="AA183">
+        <v>4.74</v>
+      </c>
+      <c r="AB183">
+        <v>1.16</v>
+      </c>
+      <c r="AC183">
+        <v>1.35</v>
+      </c>
+      <c r="AD183">
+        <v>4.7</v>
+      </c>
+      <c r="AE183">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF183">
+        <v>1.03</v>
+      </c>
+      <c r="AG183">
+        <v>11</v>
+      </c>
+      <c r="AH183">
+        <v>1.2</v>
+      </c>
+      <c r="AI183">
+        <v>4.33</v>
+      </c>
+      <c r="AJ183">
+        <v>1.55</v>
+      </c>
+      <c r="AK183">
+        <v>2.3</v>
+      </c>
+      <c r="AL183">
+        <v>1.88</v>
+      </c>
+      <c r="AM183">
+        <v>1.88</v>
+      </c>
+      <c r="AN183">
+        <v>1.05</v>
+      </c>
+      <c r="AO183">
+        <v>1.14</v>
+      </c>
+      <c r="AP183">
+        <v>3.22</v>
+      </c>
+      <c r="AQ183">
+        <v>2.15</v>
+      </c>
+      <c r="AR183">
+        <v>0.79</v>
+      </c>
+      <c r="AS183">
+        <v>2</v>
+      </c>
+      <c r="AT183">
+        <v>0.93</v>
+      </c>
+      <c r="AU183">
+        <v>1.4</v>
+      </c>
+      <c r="AV183">
+        <v>1.3</v>
+      </c>
+      <c r="AW183">
+        <v>2.7</v>
+      </c>
+      <c r="AX183">
+        <v>1.22</v>
+      </c>
+      <c r="AY183">
+        <v>10</v>
+      </c>
+      <c r="AZ183">
+        <v>5.05</v>
+      </c>
+      <c r="BA183">
+        <v>1.25</v>
+      </c>
+      <c r="BB183">
+        <v>1.4</v>
+      </c>
+      <c r="BC183">
+        <v>1.78</v>
+      </c>
+      <c r="BD183">
+        <v>2.21</v>
+      </c>
+      <c r="BE183">
+        <v>2.9</v>
+      </c>
+      <c r="BF183">
+        <v>-1</v>
+      </c>
+      <c r="BG183">
+        <v>-1</v>
+      </c>
+      <c r="BH183">
+        <v>-1</v>
+      </c>
+      <c r="BI183">
+        <v>-1</v>
+      </c>
+      <c r="BJ183">
+        <v>-1</v>
+      </c>
+      <c r="BK183">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>2515546</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F184">
+        <v>31</v>
+      </c>
+      <c r="G184" t="s">
+        <v>74</v>
+      </c>
+      <c r="H184" t="s">
+        <v>67</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>77</v>
+      </c>
+      <c r="P184" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q184">
+        <v>8</v>
+      </c>
+      <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
+        <v>10</v>
+      </c>
+      <c r="T184">
+        <v>2.88</v>
+      </c>
+      <c r="U184">
+        <v>2.2</v>
+      </c>
+      <c r="V184">
+        <v>3.2</v>
+      </c>
+      <c r="W184">
+        <v>1.36</v>
+      </c>
+      <c r="X184">
+        <v>3</v>
+      </c>
+      <c r="Y184">
+        <v>2.62</v>
+      </c>
+      <c r="Z184">
+        <v>1.44</v>
+      </c>
+      <c r="AA184">
+        <v>6</v>
+      </c>
+      <c r="AB184">
+        <v>1.11</v>
+      </c>
+      <c r="AC184">
+        <v>2.7</v>
+      </c>
+      <c r="AD184">
+        <v>3.2</v>
+      </c>
+      <c r="AE184">
+        <v>2.4</v>
+      </c>
+      <c r="AF184">
+        <v>1.05</v>
+      </c>
+      <c r="AG184">
+        <v>9</v>
+      </c>
+      <c r="AH184">
+        <v>1.25</v>
+      </c>
+      <c r="AI184">
+        <v>3.75</v>
+      </c>
+      <c r="AJ184">
+        <v>1.75</v>
+      </c>
+      <c r="AK184">
+        <v>1.95</v>
+      </c>
+      <c r="AL184">
+        <v>1.67</v>
+      </c>
+      <c r="AM184">
+        <v>2.1</v>
+      </c>
+      <c r="AN184">
+        <v>1.4</v>
+      </c>
+      <c r="AO184">
+        <v>1.33</v>
+      </c>
+      <c r="AP184">
+        <v>1.5</v>
+      </c>
+      <c r="AQ184">
+        <v>1.14</v>
+      </c>
+      <c r="AR184">
+        <v>0.79</v>
+      </c>
+      <c r="AS184">
+        <v>1.07</v>
+      </c>
+      <c r="AT184">
+        <v>0.93</v>
+      </c>
+      <c r="AU184">
+        <v>1.36</v>
+      </c>
+      <c r="AV184">
+        <v>1.11</v>
+      </c>
+      <c r="AW184">
+        <v>2.47</v>
+      </c>
+      <c r="AX184">
+        <v>1.98</v>
+      </c>
+      <c r="AY184">
+        <v>6.95</v>
+      </c>
+      <c r="AZ184">
+        <v>2.13</v>
+      </c>
+      <c r="BA184">
+        <v>1.37</v>
+      </c>
+      <c r="BB184">
+        <v>1.67</v>
+      </c>
+      <c r="BC184">
+        <v>2.17</v>
+      </c>
+      <c r="BD184">
+        <v>2.85</v>
+      </c>
+      <c r="BE184">
+        <v>4</v>
+      </c>
+      <c r="BF184">
+        <v>6</v>
+      </c>
+      <c r="BG184">
+        <v>7</v>
+      </c>
+      <c r="BH184">
+        <v>6</v>
+      </c>
+      <c r="BI184">
+        <v>3</v>
+      </c>
+      <c r="BJ184">
+        <v>12</v>
+      </c>
+      <c r="BK184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>2515461</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44996.60416666666</v>
+      </c>
+      <c r="F185">
+        <v>31</v>
+      </c>
+      <c r="G185" t="s">
+        <v>76</v>
+      </c>
+      <c r="H185" t="s">
+        <v>72</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>2</v>
+      </c>
+      <c r="K185">
+        <v>4</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>4</v>
+      </c>
+      <c r="N185">
+        <v>7</v>
+      </c>
+      <c r="O185" t="s">
+        <v>201</v>
+      </c>
+      <c r="P185" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q185">
+        <v>5</v>
+      </c>
+      <c r="R185">
+        <v>4</v>
+      </c>
+      <c r="S185">
+        <v>9</v>
+      </c>
+      <c r="T185">
+        <v>2.28</v>
+      </c>
+      <c r="U185">
+        <v>2.18</v>
+      </c>
+      <c r="V185">
+        <v>4.55</v>
+      </c>
+      <c r="W185">
+        <v>1.36</v>
+      </c>
+      <c r="X185">
+        <v>2.99</v>
+      </c>
+      <c r="Y185">
+        <v>2.66</v>
+      </c>
+      <c r="Z185">
+        <v>1.44</v>
+      </c>
+      <c r="AA185">
+        <v>6.4</v>
+      </c>
+      <c r="AB185">
+        <v>1.08</v>
+      </c>
+      <c r="AC185">
+        <v>1.8</v>
+      </c>
+      <c r="AD185">
+        <v>3.45</v>
+      </c>
+      <c r="AE185">
+        <v>3.85</v>
+      </c>
+      <c r="AF185">
+        <v>1.01</v>
+      </c>
+      <c r="AG185">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH185">
+        <v>1.24</v>
+      </c>
+      <c r="AI185">
+        <v>3.48</v>
+      </c>
+      <c r="AJ185">
+        <v>1.7</v>
+      </c>
+      <c r="AK185">
+        <v>2</v>
+      </c>
+      <c r="AL185">
+        <v>1.71</v>
+      </c>
+      <c r="AM185">
+        <v>1.97</v>
+      </c>
+      <c r="AN185">
+        <v>1.21</v>
+      </c>
+      <c r="AO185">
+        <v>1.25</v>
+      </c>
+      <c r="AP185">
+        <v>1.94</v>
+      </c>
+      <c r="AQ185">
+        <v>0.67</v>
+      </c>
+      <c r="AR185">
+        <v>0.27</v>
+      </c>
+      <c r="AS185">
+        <v>0.63</v>
+      </c>
+      <c r="AT185">
+        <v>0.44</v>
+      </c>
+      <c r="AU185">
+        <v>1.07</v>
+      </c>
+      <c r="AV185">
+        <v>0.95</v>
+      </c>
+      <c r="AW185">
+        <v>2.02</v>
+      </c>
+      <c r="AX185">
+        <v>1.41</v>
+      </c>
+      <c r="AY185">
+        <v>8.1</v>
+      </c>
+      <c r="AZ185">
+        <v>3.5</v>
+      </c>
+      <c r="BA185">
+        <v>1.24</v>
+      </c>
+      <c r="BB185">
+        <v>1.42</v>
+      </c>
+      <c r="BC185">
+        <v>1.75</v>
+      </c>
+      <c r="BD185">
+        <v>2.23</v>
+      </c>
+      <c r="BE185">
+        <v>3.1</v>
+      </c>
+      <c r="BF185">
+        <v>6</v>
+      </c>
+      <c r="BG185">
+        <v>7</v>
+      </c>
+      <c r="BH185">
+        <v>5</v>
+      </c>
+      <c r="BI185">
+        <v>5</v>
+      </c>
+      <c r="BJ185">
+        <v>11</v>
+      </c>
+      <c r="BK185">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Premiership_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="291">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,12 @@
     <t>['38', '45', '80']</t>
   </si>
   <si>
+    <t>['26', '80']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['45+1', '90+4']</t>
   </si>
   <si>
@@ -835,9 +841,6 @@
     <t>['45+1', '81', '88']</t>
   </si>
   <si>
-    <t>['88']</t>
-  </si>
-  <si>
     <t>['27', '47']</t>
   </si>
   <si>
@@ -881,6 +884,9 @@
   </si>
   <si>
     <t>['17', '20', '90+2', '90+4']</t>
+  </si>
+  <si>
+    <t>['35', '71']</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK185"/>
+  <dimension ref="A1:BK187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1677,7 +1683,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1868,7 +1874,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2059,7 +2065,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2149,7 +2155,7 @@
         <v>2.06</v>
       </c>
       <c r="AT5">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2250,7 +2256,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -2337,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.67</v>
+        <v>2.56</v>
       </c>
       <c r="AT6">
         <v>0.25</v>
@@ -2632,7 +2638,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2719,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT8">
         <v>1.13</v>
@@ -2823,7 +2829,7 @@
         <v>77</v>
       </c>
       <c r="P9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3014,7 +3020,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3205,7 +3211,7 @@
         <v>77</v>
       </c>
       <c r="P11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3295,7 +3301,7 @@
         <v>1.07</v>
       </c>
       <c r="AT11">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3396,7 +3402,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3587,7 +3593,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3778,7 +3784,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -3868,7 +3874,7 @@
         <v>1.38</v>
       </c>
       <c r="AT14">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3969,7 +3975,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4160,7 +4166,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4247,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.67</v>
+        <v>2.56</v>
       </c>
       <c r="AT16">
         <v>0.44</v>
@@ -4351,7 +4357,7 @@
         <v>77</v>
       </c>
       <c r="P17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4542,7 +4548,7 @@
         <v>77</v>
       </c>
       <c r="P18" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4823,7 +4829,7 @@
         <v>2.27</v>
       </c>
       <c r="AT19">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4924,7 +4930,7 @@
         <v>91</v>
       </c>
       <c r="P20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5115,7 +5121,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5306,7 +5312,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -5497,7 +5503,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5688,7 +5694,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5879,7 +5885,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5966,7 +5972,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>2.67</v>
+        <v>2.56</v>
       </c>
       <c r="AT25">
         <v>2.19</v>
@@ -6070,7 +6076,7 @@
         <v>77</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6261,7 +6267,7 @@
         <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6452,7 +6458,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6730,7 +6736,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT29">
         <v>0.67</v>
@@ -6834,7 +6840,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -6924,7 +6930,7 @@
         <v>0.73</v>
       </c>
       <c r="AT30">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -7216,7 +7222,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7303,7 +7309,7 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>2.67</v>
+        <v>2.56</v>
       </c>
       <c r="AT32">
         <v>1.81</v>
@@ -7494,7 +7500,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT33">
         <v>1.6</v>
@@ -7598,7 +7604,7 @@
         <v>77</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7688,7 +7694,7 @@
         <v>1.31</v>
       </c>
       <c r="AT34">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7789,7 +7795,7 @@
         <v>77</v>
       </c>
       <c r="P35" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q35">
         <v>2</v>
@@ -8449,10 +8455,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>2.67</v>
+        <v>2.56</v>
       </c>
       <c r="AT38">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -8935,7 +8941,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9508,7 +9514,7 @@
         <v>108</v>
       </c>
       <c r="P44" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9890,7 +9896,7 @@
         <v>77</v>
       </c>
       <c r="P46" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10168,7 +10174,7 @@
         <v>1.33</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT47">
         <v>0.93</v>
@@ -11036,7 +11042,7 @@
         <v>77</v>
       </c>
       <c r="P52" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11317,7 +11323,7 @@
         <v>2.27</v>
       </c>
       <c r="AT53">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU53">
         <v>0</v>
@@ -11418,7 +11424,7 @@
         <v>114</v>
       </c>
       <c r="P54" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11505,7 +11511,7 @@
         <v>1.67</v>
       </c>
       <c r="AS54">
-        <v>2.67</v>
+        <v>2.56</v>
       </c>
       <c r="AT54">
         <v>0.93</v>
@@ -11991,7 +11997,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12182,7 +12188,7 @@
         <v>118</v>
       </c>
       <c r="P58" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12463,7 +12469,7 @@
         <v>1.07</v>
       </c>
       <c r="AT59">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -12564,7 +12570,7 @@
         <v>120</v>
       </c>
       <c r="P60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12654,7 +12660,7 @@
         <v>2.06</v>
       </c>
       <c r="AT60">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -12842,7 +12848,7 @@
         <v>0</v>
       </c>
       <c r="AS61">
-        <v>2.67</v>
+        <v>2.56</v>
       </c>
       <c r="AT61">
         <v>0.44</v>
@@ -12946,7 +12952,7 @@
         <v>122</v>
       </c>
       <c r="P62" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13137,7 +13143,7 @@
         <v>77</v>
       </c>
       <c r="P63" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13328,7 +13334,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -13606,7 +13612,7 @@
         <v>2.67</v>
       </c>
       <c r="AS65">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT65">
         <v>2.19</v>
@@ -13710,7 +13716,7 @@
         <v>125</v>
       </c>
       <c r="P66" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13800,7 +13806,7 @@
         <v>1.31</v>
       </c>
       <c r="AT66">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU66">
         <v>0</v>
@@ -13901,7 +13907,7 @@
         <v>77</v>
       </c>
       <c r="P67" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14092,7 +14098,7 @@
         <v>77</v>
       </c>
       <c r="P68" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -14856,7 +14862,7 @@
         <v>129</v>
       </c>
       <c r="P72" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15047,7 +15053,7 @@
         <v>77</v>
       </c>
       <c r="P73" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15238,7 +15244,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15325,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT74">
         <v>0.25</v>
@@ -15429,7 +15435,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15811,7 +15817,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16002,7 +16008,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16665,7 +16671,7 @@
         <v>2.2</v>
       </c>
       <c r="AT81">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU81">
         <v>0</v>
@@ -16766,7 +16772,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16856,7 +16862,7 @@
         <v>0.63</v>
       </c>
       <c r="AT82">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU82">
         <v>0</v>
@@ -17148,7 +17154,7 @@
         <v>77</v>
       </c>
       <c r="P84" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17238,7 +17244,7 @@
         <v>1.07</v>
       </c>
       <c r="AT84">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU84">
         <v>0</v>
@@ -17339,7 +17345,7 @@
         <v>137</v>
       </c>
       <c r="P85" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17530,7 +17536,7 @@
         <v>77</v>
       </c>
       <c r="P86" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q86">
         <v>-1</v>
@@ -17912,7 +17918,7 @@
         <v>77</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17999,10 +18005,10 @@
         <v>0.67</v>
       </c>
       <c r="AS88">
-        <v>2.67</v>
+        <v>2.56</v>
       </c>
       <c r="AT88">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU88">
         <v>0</v>
@@ -18103,7 +18109,7 @@
         <v>77</v>
       </c>
       <c r="P89" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18572,7 +18578,7 @@
         <v>0.86</v>
       </c>
       <c r="AS91">
-        <v>2.67</v>
+        <v>2.56</v>
       </c>
       <c r="AT91">
         <v>0.67</v>
@@ -19058,7 +19064,7 @@
         <v>77</v>
       </c>
       <c r="P94" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -19145,10 +19151,10 @@
         <v>2</v>
       </c>
       <c r="AS94">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT94">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU94">
         <v>0</v>
@@ -19440,7 +19446,7 @@
         <v>77</v>
       </c>
       <c r="P96" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19631,7 +19637,7 @@
         <v>77</v>
       </c>
       <c r="P97" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20204,7 +20210,7 @@
         <v>77</v>
       </c>
       <c r="P100" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20294,7 +20300,7 @@
         <v>1.44</v>
       </c>
       <c r="AT100">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU100">
         <v>0</v>
@@ -20586,7 +20592,7 @@
         <v>77</v>
       </c>
       <c r="P102" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20867,7 +20873,7 @@
         <v>1.38</v>
       </c>
       <c r="AT103">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU103">
         <v>0</v>
@@ -21159,7 +21165,7 @@
         <v>146</v>
       </c>
       <c r="P105" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21246,7 +21252,7 @@
         <v>2.13</v>
       </c>
       <c r="AS105">
-        <v>2.67</v>
+        <v>2.56</v>
       </c>
       <c r="AT105">
         <v>1.69</v>
@@ -21350,7 +21356,7 @@
         <v>147</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21541,7 +21547,7 @@
         <v>148</v>
       </c>
       <c r="P107" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -21923,7 +21929,7 @@
         <v>150</v>
       </c>
       <c r="P109" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22204,7 +22210,7 @@
         <v>0.73</v>
       </c>
       <c r="AT110">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU110">
         <v>0</v>
@@ -23069,7 +23075,7 @@
         <v>156</v>
       </c>
       <c r="P115" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q115">
         <v>1</v>
@@ -23156,7 +23162,7 @@
         <v>2.11</v>
       </c>
       <c r="AS115">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT115">
         <v>1.81</v>
@@ -23541,7 +23547,7 @@
         <v>2.06</v>
       </c>
       <c r="AT117">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU117">
         <v>0.75</v>
@@ -23729,10 +23735,10 @@
         <v>1.9</v>
       </c>
       <c r="AS118">
-        <v>2.67</v>
+        <v>2.56</v>
       </c>
       <c r="AT118">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU118">
         <v>0</v>
@@ -23833,7 +23839,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q119">
         <v>-1</v>
@@ -24406,7 +24412,7 @@
         <v>77</v>
       </c>
       <c r="P122" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24979,7 +24985,7 @@
         <v>162</v>
       </c>
       <c r="P125" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25170,7 +25176,7 @@
         <v>163</v>
       </c>
       <c r="P126" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25361,7 +25367,7 @@
         <v>164</v>
       </c>
       <c r="P127" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25743,7 +25749,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25833,7 +25839,7 @@
         <v>1.44</v>
       </c>
       <c r="AT129">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU129">
         <v>0.83</v>
@@ -25934,7 +25940,7 @@
         <v>77</v>
       </c>
       <c r="P130" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26021,7 +26027,7 @@
         <v>2</v>
       </c>
       <c r="AS130">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT130">
         <v>2.19</v>
@@ -26212,7 +26218,7 @@
         <v>0.55</v>
       </c>
       <c r="AS131">
-        <v>2.67</v>
+        <v>2.56</v>
       </c>
       <c r="AT131">
         <v>0.67</v>
@@ -26507,7 +26513,7 @@
         <v>169</v>
       </c>
       <c r="P133" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26889,7 +26895,7 @@
         <v>171</v>
       </c>
       <c r="P135" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27080,7 +27086,7 @@
         <v>117</v>
       </c>
       <c r="P136" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27271,7 +27277,7 @@
         <v>172</v>
       </c>
       <c r="P137" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27743,7 +27749,7 @@
         <v>2.2</v>
       </c>
       <c r="AT139">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU139">
         <v>1.89</v>
@@ -27931,7 +27937,7 @@
         <v>2.08</v>
       </c>
       <c r="AS140">
-        <v>2.67</v>
+        <v>2.56</v>
       </c>
       <c r="AT140">
         <v>1.81</v>
@@ -28122,7 +28128,7 @@
         <v>0.08</v>
       </c>
       <c r="AS141">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT141">
         <v>0.25</v>
@@ -28608,7 +28614,7 @@
         <v>177</v>
       </c>
       <c r="P144" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28698,7 +28704,7 @@
         <v>1.31</v>
       </c>
       <c r="AT144">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU144">
         <v>1.52</v>
@@ -29080,7 +29086,7 @@
         <v>2.6</v>
       </c>
       <c r="AT146">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU146">
         <v>1.61</v>
@@ -29181,7 +29187,7 @@
         <v>179</v>
       </c>
       <c r="P147" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29372,7 +29378,7 @@
         <v>77</v>
       </c>
       <c r="P148" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29563,7 +29569,7 @@
         <v>143</v>
       </c>
       <c r="P149" t="s">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -30032,7 +30038,7 @@
         <v>1.25</v>
       </c>
       <c r="AS151">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT151">
         <v>1.13</v>
@@ -30327,7 +30333,7 @@
         <v>77</v>
       </c>
       <c r="P153" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q153">
         <v>5</v>
@@ -30709,7 +30715,7 @@
         <v>182</v>
       </c>
       <c r="P155" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30987,7 +30993,7 @@
         <v>0.08</v>
       </c>
       <c r="AS156">
-        <v>2.67</v>
+        <v>2.56</v>
       </c>
       <c r="AT156">
         <v>0.25</v>
@@ -31181,7 +31187,7 @@
         <v>2.2</v>
       </c>
       <c r="AT157">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU157">
         <v>1.95</v>
@@ -31473,7 +31479,7 @@
         <v>77</v>
       </c>
       <c r="P159" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q159">
         <v>1</v>
@@ -31664,7 +31670,7 @@
         <v>186</v>
       </c>
       <c r="P160" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q160">
         <v>-1</v>
@@ -31942,7 +31948,7 @@
         <v>2</v>
       </c>
       <c r="AS161">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT161">
         <v>1.81</v>
@@ -32327,7 +32333,7 @@
         <v>1.44</v>
       </c>
       <c r="AT163">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU163">
         <v>1.47</v>
@@ -32428,7 +32434,7 @@
         <v>189</v>
       </c>
       <c r="P164" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32619,7 +32625,7 @@
         <v>77</v>
       </c>
       <c r="P165" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -32897,7 +32903,7 @@
         <v>1.85</v>
       </c>
       <c r="AS166">
-        <v>2.67</v>
+        <v>2.56</v>
       </c>
       <c r="AT166">
         <v>1.6</v>
@@ -33091,7 +33097,7 @@
         <v>2.27</v>
       </c>
       <c r="AT167">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU167">
         <v>1.42</v>
@@ -33383,7 +33389,7 @@
         <v>193</v>
       </c>
       <c r="P169" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -33574,7 +33580,7 @@
         <v>77</v>
       </c>
       <c r="P170" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q170">
         <v>1</v>
@@ -33765,7 +33771,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q171">
         <v>6</v>
@@ -33956,7 +33962,7 @@
         <v>195</v>
       </c>
       <c r="P172" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q172">
         <v>2</v>
@@ -34147,7 +34153,7 @@
         <v>77</v>
       </c>
       <c r="P173" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34720,7 +34726,7 @@
         <v>197</v>
       </c>
       <c r="P176" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q176">
         <v>-1</v>
@@ -34998,7 +35004,7 @@
         <v>0.58</v>
       </c>
       <c r="AS177">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT177">
         <v>0.93</v>
@@ -35102,7 +35108,7 @@
         <v>198</v>
       </c>
       <c r="P178" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q178">
         <v>-1</v>
@@ -35675,7 +35681,7 @@
         <v>199</v>
       </c>
       <c r="P181" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q181">
         <v>2</v>
@@ -35866,7 +35872,7 @@
         <v>200</v>
       </c>
       <c r="P182" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q182">
         <v>5</v>
@@ -35956,7 +35962,7 @@
         <v>2.06</v>
       </c>
       <c r="AT182">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU182">
         <v>1.76</v>
@@ -36057,16 +36063,16 @@
         <v>77</v>
       </c>
       <c r="P183" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q183">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R183">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S183">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T183">
         <v>1.75</v>
@@ -36144,7 +36150,7 @@
         <v>0.79</v>
       </c>
       <c r="AS183">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT183">
         <v>0.93</v>
@@ -36183,22 +36189,22 @@
         <v>2.9</v>
       </c>
       <c r="BF183">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG183">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH183">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI183">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ183">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK183">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:63">
@@ -36439,7 +36445,7 @@
         <v>201</v>
       </c>
       <c r="P185" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q185">
         <v>5</v>
@@ -36581,6 +36587,388 @@
       </c>
       <c r="BK185">
         <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>2515458</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44998.69791666666</v>
+      </c>
+      <c r="F186">
+        <v>31</v>
+      </c>
+      <c r="G186" t="s">
+        <v>69</v>
+      </c>
+      <c r="H186" t="s">
+        <v>75</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>2</v>
+      </c>
+      <c r="N186">
+        <v>4</v>
+      </c>
+      <c r="O186" t="s">
+        <v>202</v>
+      </c>
+      <c r="P186" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>2</v>
+      </c>
+      <c r="S186">
+        <v>2</v>
+      </c>
+      <c r="T186">
+        <v>2.33</v>
+      </c>
+      <c r="U186">
+        <v>2.23</v>
+      </c>
+      <c r="V186">
+        <v>4.4</v>
+      </c>
+      <c r="W186">
+        <v>1.33</v>
+      </c>
+      <c r="X186">
+        <v>3.25</v>
+      </c>
+      <c r="Y186">
+        <v>2.63</v>
+      </c>
+      <c r="Z186">
+        <v>1.44</v>
+      </c>
+      <c r="AA186">
+        <v>6.5</v>
+      </c>
+      <c r="AB186">
+        <v>1.11</v>
+      </c>
+      <c r="AC186">
+        <v>1.78</v>
+      </c>
+      <c r="AD186">
+        <v>3.75</v>
+      </c>
+      <c r="AE186">
+        <v>4</v>
+      </c>
+      <c r="AF186">
+        <v>1.04</v>
+      </c>
+      <c r="AG186">
+        <v>10</v>
+      </c>
+      <c r="AH186">
+        <v>1.22</v>
+      </c>
+      <c r="AI186">
+        <v>4</v>
+      </c>
+      <c r="AJ186">
+        <v>1.72</v>
+      </c>
+      <c r="AK186">
+        <v>2.05</v>
+      </c>
+      <c r="AL186">
+        <v>1.67</v>
+      </c>
+      <c r="AM186">
+        <v>2.1</v>
+      </c>
+      <c r="AN186">
+        <v>1.23</v>
+      </c>
+      <c r="AO186">
+        <v>1.24</v>
+      </c>
+      <c r="AP186">
+        <v>1.91</v>
+      </c>
+      <c r="AQ186">
+        <v>2.67</v>
+      </c>
+      <c r="AR186">
+        <v>1.53</v>
+      </c>
+      <c r="AS186">
+        <v>2.56</v>
+      </c>
+      <c r="AT186">
+        <v>1.5</v>
+      </c>
+      <c r="AU186">
+        <v>1.67</v>
+      </c>
+      <c r="AV186">
+        <v>1.24</v>
+      </c>
+      <c r="AW186">
+        <v>2.91</v>
+      </c>
+      <c r="AX186">
+        <v>1.64</v>
+      </c>
+      <c r="AY186">
+        <v>7.5</v>
+      </c>
+      <c r="AZ186">
+        <v>2.67</v>
+      </c>
+      <c r="BA186">
+        <v>1.35</v>
+      </c>
+      <c r="BB186">
+        <v>1.63</v>
+      </c>
+      <c r="BC186">
+        <v>2.05</v>
+      </c>
+      <c r="BD186">
+        <v>2.75</v>
+      </c>
+      <c r="BE186">
+        <v>3.5</v>
+      </c>
+      <c r="BF186">
+        <v>5</v>
+      </c>
+      <c r="BG186">
+        <v>4</v>
+      </c>
+      <c r="BH186">
+        <v>4</v>
+      </c>
+      <c r="BI186">
+        <v>5</v>
+      </c>
+      <c r="BJ186">
+        <v>9</v>
+      </c>
+      <c r="BK186">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>2515328</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>44999.69791666666</v>
+      </c>
+      <c r="F187">
+        <v>9</v>
+      </c>
+      <c r="G187" t="s">
+        <v>71</v>
+      </c>
+      <c r="H187" t="s">
+        <v>66</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>203</v>
+      </c>
+      <c r="P187" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q187">
+        <v>7</v>
+      </c>
+      <c r="R187">
+        <v>4</v>
+      </c>
+      <c r="S187">
+        <v>11</v>
+      </c>
+      <c r="T187">
+        <v>1.91</v>
+      </c>
+      <c r="U187">
+        <v>2.55</v>
+      </c>
+      <c r="V187">
+        <v>6.73</v>
+      </c>
+      <c r="W187">
+        <v>1.3</v>
+      </c>
+      <c r="X187">
+        <v>3.2</v>
+      </c>
+      <c r="Y187">
+        <v>2.56</v>
+      </c>
+      <c r="Z187">
+        <v>1.5</v>
+      </c>
+      <c r="AA187">
+        <v>5.2</v>
+      </c>
+      <c r="AB187">
+        <v>1.13</v>
+      </c>
+      <c r="AC187">
+        <v>1.18</v>
+      </c>
+      <c r="AD187">
+        <v>6.4</v>
+      </c>
+      <c r="AE187">
+        <v>13.75</v>
+      </c>
+      <c r="AF187">
+        <v>1.03</v>
+      </c>
+      <c r="AG187">
+        <v>13</v>
+      </c>
+      <c r="AH187">
+        <v>1.21</v>
+      </c>
+      <c r="AI187">
+        <v>4.23</v>
+      </c>
+      <c r="AJ187">
+        <v>1.62</v>
+      </c>
+      <c r="AK187">
+        <v>2.2</v>
+      </c>
+      <c r="AL187">
+        <v>1.92</v>
+      </c>
+      <c r="AM187">
+        <v>1.85</v>
+      </c>
+      <c r="AN187">
+        <v>1.09</v>
+      </c>
+      <c r="AO187">
+        <v>1.18</v>
+      </c>
+      <c r="AP187">
+        <v>3.05</v>
+      </c>
+      <c r="AQ187">
+        <v>2</v>
+      </c>
+      <c r="AR187">
+        <v>0.71</v>
+      </c>
+      <c r="AS187">
+        <v>2.07</v>
+      </c>
+      <c r="AT187">
+        <v>0.67</v>
+      </c>
+      <c r="AU187">
+        <v>1.41</v>
+      </c>
+      <c r="AV187">
+        <v>1.11</v>
+      </c>
+      <c r="AW187">
+        <v>2.52</v>
+      </c>
+      <c r="AX187">
+        <v>1.27</v>
+      </c>
+      <c r="AY187">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ187">
+        <v>4.65</v>
+      </c>
+      <c r="BA187">
+        <v>1.29</v>
+      </c>
+      <c r="BB187">
+        <v>1.33</v>
+      </c>
+      <c r="BC187">
+        <v>1.59</v>
+      </c>
+      <c r="BD187">
+        <v>2.05</v>
+      </c>
+      <c r="BE187">
+        <v>2.62</v>
+      </c>
+      <c r="BF187">
+        <v>3</v>
+      </c>
+      <c r="BG187">
+        <v>2</v>
+      </c>
+      <c r="BH187">
+        <v>2</v>
+      </c>
+      <c r="BI187">
+        <v>1</v>
+      </c>
+      <c r="BJ187">
+        <v>5</v>
+      </c>
+      <c r="BK187">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK187"/>
+  <dimension ref="A1:BK193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.56</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT7" t="n">
         <v>0.44</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT10" t="n">
         <v>2.19</v>
@@ -2730,7 +2730,7 @@
         <v>1.07</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AT12" t="n">
         <v>0.93</v>
@@ -3539,10 +3539,10 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.07</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>2</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT23" t="n">
         <v>1.81</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1.07</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT28" t="n">
         <v>0.93</v>
@@ -6384,7 +6384,7 @@
         <v>2.07</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT30" t="n">
         <v>1.5</v>
@@ -6790,7 +6790,7 @@
         <v>0.63</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>2.07</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>2</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT34" t="n">
         <v>1.5</v>
@@ -7802,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT36" t="n">
         <v>2.19</v>
@@ -8005,7 +8005,7 @@
         <v>2.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT37" t="n">
         <v>2.19</v>
@@ -8211,7 +8211,7 @@
         <v>2.56</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>2.06</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT41" t="n">
         <v>0.93</v>
@@ -9020,10 +9020,10 @@
         <v>0.75</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU42" t="n">
         <v>0</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT44" t="n">
         <v>1.13</v>
@@ -9629,10 +9629,10 @@
         <v>2.25</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU45" t="n">
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AT48" t="n">
         <v>1.13</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="AU49" t="n">
         <v>0</v>
@@ -11050,10 +11050,10 @@
         <v>2.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU52" t="n">
         <v>0</v>
@@ -11253,7 +11253,7 @@
         <v>2.25</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT53" t="n">
         <v>1.5</v>
@@ -11659,10 +11659,10 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="AU55" t="n">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>1.38</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU56" t="n">
         <v>0</v>
@@ -12065,10 +12065,10 @@
         <v>0.6</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU57" t="n">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>1.25</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT58" t="n">
         <v>0.93</v>
@@ -12474,7 +12474,7 @@
         <v>1.07</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU59" t="n">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>2.6</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT62" t="n">
         <v>2.19</v>
@@ -13286,7 +13286,7 @@
         <v>0.63</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT64" t="n">
         <v>0.93</v>
@@ -13892,10 +13892,10 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU66" t="n">
         <v>0</v>
@@ -14501,7 +14501,7 @@
         <v>0.8</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AT69" t="n">
         <v>0.93</v>
@@ -14910,7 +14910,7 @@
         <v>1.38</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU71" t="n">
         <v>0</v>
@@ -15110,7 +15110,7 @@
         <v>1.4</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT72" t="n">
         <v>1.13</v>
@@ -15313,7 +15313,7 @@
         <v>1.86</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT73" t="n">
         <v>1.81</v>
@@ -15519,7 +15519,7 @@
         <v>2.07</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="AU74" t="n">
         <v>0</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AT75" t="n">
         <v>0.93</v>
@@ -15922,10 +15922,10 @@
         <v>1.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU76" t="n">
         <v>0</v>
@@ -16328,10 +16328,10 @@
         <v>2.6</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU78" t="n">
         <v>0</v>
@@ -16531,10 +16531,10 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="AU79" t="n">
         <v>0</v>
@@ -16734,7 +16734,7 @@
         <v>0</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT80" t="n">
         <v>0.44</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT81" t="n">
         <v>1.5</v>
@@ -17143,7 +17143,7 @@
         <v>0.63</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU82" t="n">
         <v>0</v>
@@ -17346,7 +17346,7 @@
         <v>2.06</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU83" t="n">
         <v>0</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT85" t="n">
         <v>0.93</v>
@@ -17952,7 +17952,7 @@
         <v>2.29</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT86" t="n">
         <v>2.19</v>
@@ -18361,7 +18361,7 @@
         <v>2.56</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU88" t="n">
         <v>0</v>
@@ -18764,10 +18764,10 @@
         <v>0</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="AU90" t="n">
         <v>0</v>
@@ -18970,7 +18970,7 @@
         <v>2.56</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU91" t="n">
         <v>0</v>
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT92" t="n">
         <v>0.44</v>
@@ -19373,10 +19373,10 @@
         <v>1.71</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU93" t="n">
         <v>0</v>
@@ -19779,7 +19779,7 @@
         <v>2.38</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT95" t="n">
         <v>2.19</v>
@@ -19982,10 +19982,10 @@
         <v>1.63</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU96" t="n">
         <v>0</v>
@@ -20185,10 +20185,10 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU97" t="n">
         <v>0</v>
@@ -20388,10 +20388,10 @@
         <v>0.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU98" t="n">
         <v>0</v>
@@ -20794,10 +20794,10 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU100" t="n">
         <v>0</v>
@@ -20997,7 +20997,7 @@
         <v>1.43</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT101" t="n">
         <v>1.13</v>
@@ -21200,7 +21200,7 @@
         <v>2.11</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT102" t="n">
         <v>2.19</v>
@@ -21609,7 +21609,7 @@
         <v>2.06</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="AU104" t="n">
         <v>0</v>
@@ -21812,7 +21812,7 @@
         <v>2.56</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU105" t="n">
         <v>0</v>
@@ -22012,7 +22012,7 @@
         <v>0.57</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT106" t="n">
         <v>0.93</v>
@@ -22824,10 +22824,10 @@
         <v>1.25</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU110" t="n">
         <v>0</v>
@@ -23027,10 +23027,10 @@
         <v>0.67</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU111" t="n">
         <v>0</v>
@@ -23230,10 +23230,10 @@
         <v>0</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="AU112" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AT113" t="n">
         <v>0.44</v>
@@ -23636,10 +23636,10 @@
         <v>1.89</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU114" t="n">
         <v>2.56</v>
@@ -24045,7 +24045,7 @@
         <v>1.07</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU116" t="n">
         <v>2.33</v>
@@ -24248,7 +24248,7 @@
         <v>2.06</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU117" t="n">
         <v>0.75</v>
@@ -24651,7 +24651,7 @@
         <v>0.3</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT119" t="n">
         <v>0.44</v>
@@ -24854,7 +24854,7 @@
         <v>0.44</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT120" t="n">
         <v>0.93</v>
@@ -25057,10 +25057,10 @@
         <v>1.78</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU121" t="n">
         <v>2.08</v>
@@ -25260,7 +25260,7 @@
         <v>1.22</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT122" t="n">
         <v>1.13</v>
@@ -25466,7 +25466,7 @@
         <v>1.38</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU123" t="n">
         <v>0</v>
@@ -25666,10 +25666,10 @@
         <v>0</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="AU124" t="n">
         <v>1.45</v>
@@ -25869,7 +25869,7 @@
         <v>2.2</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AT125" t="n">
         <v>2.19</v>
@@ -26075,7 +26075,7 @@
         <v>0.63</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU126" t="n">
         <v>0</v>
@@ -26275,7 +26275,7 @@
         <v>1.4</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT127" t="n">
         <v>1.13</v>
@@ -26478,7 +26478,7 @@
         <v>2.2</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AT128" t="n">
         <v>1.81</v>
@@ -26681,7 +26681,7 @@
         <v>1.73</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT129" t="n">
         <v>1.5</v>
@@ -27090,7 +27090,7 @@
         <v>2.56</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU131" t="n">
         <v>1.45</v>
@@ -27293,7 +27293,7 @@
         <v>1.38</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="AU132" t="n">
         <v>1.42</v>
@@ -27493,7 +27493,7 @@
         <v>2</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT133" t="n">
         <v>1.81</v>
@@ -27899,10 +27899,10 @@
         <v>1.82</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU135" t="n">
         <v>1.63</v>
@@ -28105,7 +28105,7 @@
         <v>0.63</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU136" t="n">
         <v>1.45</v>
@@ -28508,7 +28508,7 @@
         <v>1.27</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT138" t="n">
         <v>1.13</v>
@@ -28711,10 +28711,10 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU139" t="n">
         <v>1.89</v>
@@ -29120,7 +29120,7 @@
         <v>2.07</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="AU141" t="n">
         <v>0.73</v>
@@ -29320,7 +29320,7 @@
         <v>0.25</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT142" t="n">
         <v>0.44</v>
@@ -29726,7 +29726,7 @@
         <v>1.67</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT144" t="n">
         <v>1.5</v>
@@ -29932,7 +29932,7 @@
         <v>1.38</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU145" t="n">
         <v>1.42</v>
@@ -30132,10 +30132,10 @@
         <v>0.91</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU146" t="n">
         <v>1.61</v>
@@ -30335,7 +30335,7 @@
         <v>1.92</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT147" t="n">
         <v>1.81</v>
@@ -30541,7 +30541,7 @@
         <v>1.07</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU148" t="n">
         <v>1.69</v>
@@ -30741,7 +30741,7 @@
         <v>0.67</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT149" t="n">
         <v>0.93</v>
@@ -31350,7 +31350,7 @@
         <v>0.7</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT152" t="n">
         <v>0.93</v>
@@ -31962,7 +31962,7 @@
         <v>2.06</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU155" t="n">
         <v>1.48</v>
@@ -32165,7 +32165,7 @@
         <v>2.56</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="AU156" t="n">
         <v>1.74</v>
@@ -32365,7 +32365,7 @@
         <v>1.77</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT157" t="n">
         <v>1.5</v>
@@ -32571,7 +32571,7 @@
         <v>2.06</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU158" t="n">
         <v>1.47</v>
@@ -32974,7 +32974,7 @@
         <v>1.15</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT160" t="n">
         <v>1.13</v>
@@ -33380,7 +33380,7 @@
         <v>0.29</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AT162" t="n">
         <v>0.44</v>
@@ -33583,10 +33583,10 @@
         <v>0.83</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU163" t="n">
         <v>1.47</v>
@@ -33789,7 +33789,7 @@
         <v>1.38</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU164" t="n">
         <v>1.3</v>
@@ -33992,7 +33992,7 @@
         <v>0.63</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="AU165" t="n">
         <v>1.16</v>
@@ -34195,7 +34195,7 @@
         <v>2.56</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU166" t="n">
         <v>1.78</v>
@@ -34395,7 +34395,7 @@
         <v>1.64</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT167" t="n">
         <v>1.5</v>
@@ -34598,7 +34598,7 @@
         <v>0.67</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT168" t="n">
         <v>0.93</v>
@@ -34801,7 +34801,7 @@
         <v>0.64</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT169" t="n">
         <v>0.93</v>
@@ -35207,10 +35207,10 @@
         <v>0.27</v>
       </c>
       <c r="AS171" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="AU171" t="n">
         <v>1.25</v>
@@ -35410,10 +35410,10 @@
         <v>1.71</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU172" t="n">
         <v>1.64</v>
@@ -35613,10 +35613,10 @@
         <v>0.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU173" t="n">
         <v>1.43</v>
@@ -35816,10 +35816,10 @@
         <v>1.71</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU174" t="n">
         <v>1.76</v>
@@ -36222,7 +36222,7 @@
         <v>2.13</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT176" t="n">
         <v>2.19</v>
@@ -36628,7 +36628,7 @@
         <v>0.62</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT178" t="n">
         <v>0.93</v>
@@ -37034,7 +37034,7 @@
         <v>1.87</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT180" t="n">
         <v>1.81</v>
@@ -37237,10 +37237,10 @@
         <v>1.6</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU181" t="n">
         <v>1.49</v>
@@ -37443,7 +37443,7 @@
         <v>2.06</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU182" t="n">
         <v>1.76</v>
@@ -38458,7 +38458,7 @@
         <v>2.07</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU187" t="n">
         <v>1.41</v>
@@ -38510,6 +38510,1224 @@
       </c>
       <c r="BK187" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2515465</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Premiership</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45002.69791666666</v>
+      </c>
+      <c r="F188" t="n">
+        <v>32</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Larne</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Ballymena United</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>5</v>
+      </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
+      <c r="S188" t="n">
+        <v>5</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V188" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X188" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2515462</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Premiership</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>32</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Carrick Rangers</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Glentoran</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>4</v>
+      </c>
+      <c r="N189" t="n">
+        <v>4</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['51', '65', '79', '89']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>3</v>
+      </c>
+      <c r="R189" t="n">
+        <v>3</v>
+      </c>
+      <c r="S189" t="n">
+        <v>6</v>
+      </c>
+      <c r="T189" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V189" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X189" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2515463</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Premiership</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>32</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Cliftonville</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Dungannon Swifts</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="n">
+        <v>2</v>
+      </c>
+      <c r="N190" t="n">
+        <v>3</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['89', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R190" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S190" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V190" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X190" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2515464</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Premiership</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>32</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Glenavon</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Coleraine</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="n">
+        <v>3</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['69', '84']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>3</v>
+      </c>
+      <c r="R191" t="n">
+        <v>3</v>
+      </c>
+      <c r="S191" t="n">
+        <v>6</v>
+      </c>
+      <c r="T191" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V191" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X191" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2515466</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Premiership</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F192" t="n">
+        <v>32</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Linfield</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Newry City AFC</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>4</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>4</v>
+      </c>
+      <c r="L192" t="n">
+        <v>7</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>7</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['4', '25', '43', '45+1', '55', '57', '64']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>6</v>
+      </c>
+      <c r="R192" t="n">
+        <v>5</v>
+      </c>
+      <c r="S192" t="n">
+        <v>11</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U192" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V192" t="n">
+        <v>12</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X192" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2515467</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Premiership</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F193" t="n">
+        <v>32</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Portadown</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Crusaders</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>2</v>
+      </c>
+      <c r="M193" t="n">
+        <v>2</v>
+      </c>
+      <c r="N193" t="n">
+        <v>4</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['33', '89']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['57', '76']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>4</v>
+      </c>
+      <c r="R193" t="n">
+        <v>10</v>
+      </c>
+      <c r="S193" t="n">
+        <v>14</v>
+      </c>
+      <c r="T193" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V193" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X193" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK197"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2.25</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT8" t="n">
         <v>1.13</v>
@@ -3542,7 +3542,7 @@
         <v>2.59</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT17" t="n">
         <v>1.59</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT28" t="n">
         <v>0.63</v>
@@ -6381,7 +6381,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT29" t="n">
         <v>1.88</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT35" t="n">
         <v>0.88</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT36" t="n">
         <v>1.5</v>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>0.75</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU41" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>1.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT47" t="n">
         <v>0.88</v>
@@ -10847,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU51" t="n">
         <v>0</v>
@@ -11459,7 +11459,7 @@
         <v>2.59</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU54" t="n">
         <v>0</v>
@@ -11659,7 +11659,7 @@
         <v>1.8</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT55" t="n">
         <v>1.5</v>
@@ -12271,7 +12271,7 @@
         <v>2.25</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU58" t="n">
         <v>0</v>
@@ -13286,7 +13286,7 @@
         <v>2.59</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>2.67</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT66" t="n">
         <v>2.12</v>
@@ -14504,7 +14504,7 @@
         <v>2</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU69" t="n">
         <v>0</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT71" t="n">
         <v>0.63</v>
@@ -15316,7 +15316,7 @@
         <v>2.44</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU73" t="n">
         <v>0</v>
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT74" t="n">
         <v>0.41</v>
@@ -16534,7 +16534,7 @@
         <v>1.35</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU79" t="n">
         <v>0</v>
@@ -17752,7 +17752,7 @@
         <v>2.25</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU85" t="n">
         <v>0</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT90" t="n">
         <v>1.88</v>
@@ -19173,7 +19173,7 @@
         <v>1.35</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU92" t="n">
         <v>0</v>
@@ -19576,7 +19576,7 @@
         <v>2</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT94" t="n">
         <v>1.59</v>
@@ -20797,7 +20797,7 @@
         <v>1</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU100" t="n">
         <v>0</v>
@@ -21403,7 +21403,7 @@
         <v>2.11</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT103" t="n">
         <v>1.59</v>
@@ -22218,7 +22218,7 @@
         <v>0.59</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU107" t="n">
         <v>0</v>
@@ -23233,7 +23233,7 @@
         <v>2.44</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU112" t="n">
         <v>0</v>
@@ -23839,7 +23839,7 @@
         <v>2.11</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT115" t="n">
         <v>1.88</v>
@@ -24248,7 +24248,7 @@
         <v>1.41</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU117" t="n">
         <v>0</v>
@@ -25057,7 +25057,7 @@
         <v>1.7</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT121" t="n">
         <v>1.76</v>
@@ -26884,7 +26884,7 @@
         <v>0.09</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT130" t="n">
         <v>0.41</v>
@@ -27090,7 +27090,7 @@
         <v>2</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU131" t="n">
         <v>0.75</v>
@@ -27493,7 +27493,7 @@
         <v>2</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT133" t="n">
         <v>2.12</v>
@@ -28511,7 +28511,7 @@
         <v>1</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU138" t="n">
         <v>2.33</v>
@@ -29117,7 +29117,7 @@
         <v>0.08</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT141" t="n">
         <v>0.41</v>
@@ -29323,7 +29323,7 @@
         <v>2.31</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU142" t="n">
         <v>1.49</v>
@@ -29929,7 +29929,7 @@
         <v>0.5</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT145" t="n">
         <v>0.63</v>
@@ -30338,7 +30338,7 @@
         <v>1.35</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU147" t="n">
         <v>1.28</v>
@@ -31147,7 +31147,7 @@
         <v>1.25</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT151" t="n">
         <v>1.13</v>
@@ -31353,7 +31353,7 @@
         <v>2.31</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU152" t="n">
         <v>1.48</v>
@@ -32365,10 +32365,10 @@
         <v>0.23</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU157" t="n">
         <v>1.42</v>
@@ -32771,7 +32771,7 @@
         <v>2</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT159" t="n">
         <v>1.88</v>
@@ -32977,7 +32977,7 @@
         <v>2.44</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU160" t="n">
         <v>1.64</v>
@@ -33989,7 +33989,7 @@
         <v>1.62</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT165" t="n">
         <v>1.76</v>
@@ -34804,7 +34804,7 @@
         <v>0.75</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU169" t="n">
         <v>1.13</v>
@@ -35004,7 +35004,7 @@
         <v>2.07</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT170" t="n">
         <v>2.12</v>
@@ -35410,7 +35410,7 @@
         <v>1.14</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT172" t="n">
         <v>1.13</v>
@@ -36425,10 +36425,10 @@
         <v>0.58</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU177" t="n">
         <v>1.24</v>
@@ -36834,7 +36834,7 @@
         <v>0.59</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU179" t="n">
         <v>1.14</v>
@@ -37846,10 +37846,10 @@
         <v>0.79</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AU184" t="n">
         <v>1.4</v>
@@ -38052,7 +38052,7 @@
         <v>0.59</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU185" t="n">
         <v>1.07</v>
@@ -38455,7 +38455,7 @@
         <v>0.71</v>
       </c>
       <c r="AS187" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT187" t="n">
         <v>0.63</v>
@@ -40540,6 +40540,412 @@
       </c>
       <c r="BK197" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2515472</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Premiership</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F198" t="n">
+        <v>33</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Glentoran</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Portadown</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>3</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>3</v>
+      </c>
+      <c r="L198" t="n">
+        <v>5</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="n">
+        <v>6</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['18', '28', '45+1', '56', '64']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>5</v>
+      </c>
+      <c r="R198" t="n">
+        <v>3</v>
+      </c>
+      <c r="S198" t="n">
+        <v>8</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V198" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X198" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2515468</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Premiership</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45019.65625</v>
+      </c>
+      <c r="F199" t="n">
+        <v>33</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Ballymena United</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Glenavon</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>5</v>
+      </c>
+      <c r="R199" t="n">
+        <v>5</v>
+      </c>
+      <c r="S199" t="n">
+        <v>10</v>
+      </c>
+      <c r="T199" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V199" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X199" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK199"/>
+  <dimension ref="A1:BK205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.59</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT7" t="n">
         <v>0.41</v>
@@ -2121,7 +2121,7 @@
         <v>2.13</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT9" t="n">
         <v>0.88</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT11" t="n">
         <v>2.12</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>0.59</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT23" t="n">
         <v>1.88</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>1.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT27" t="n">
         <v>1.59</v>
@@ -6181,7 +6181,7 @@
         <v>2.13</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT30" t="n">
         <v>0.88</v>
@@ -6993,7 +6993,7 @@
         <v>0.59</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AU32" t="n">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT33" t="n">
         <v>1.59</v>
@@ -7396,7 +7396,7 @@
         <v>2</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT34" t="n">
         <v>2.12</v>
@@ -7805,7 +7805,7 @@
         <v>2.13</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8211,7 +8211,7 @@
         <v>2.59</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>2.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT40" t="n">
         <v>2.12</v>
@@ -8817,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT41" t="n">
         <v>1.06</v>
@@ -9223,10 +9223,10 @@
         <v>0.75</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU43" t="n">
         <v>0</v>
@@ -9426,10 +9426,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU44" t="n">
         <v>0</v>
@@ -9629,10 +9629,10 @@
         <v>2.25</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU45" t="n">
         <v>0</v>
@@ -9832,10 +9832,10 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU46" t="n">
         <v>0</v>
@@ -10644,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AU50" t="n">
         <v>0</v>
@@ -11050,10 +11050,10 @@
         <v>2.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AU52" t="n">
         <v>0</v>
@@ -11253,7 +11253,7 @@
         <v>2.25</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT53" t="n">
         <v>1.59</v>
@@ -11662,7 +11662,7 @@
         <v>1.29</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU55" t="n">
         <v>0</v>
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AU56" t="n">
         <v>0</v>
@@ -12065,10 +12065,10 @@
         <v>0.6</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU57" t="n">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>1.25</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT58" t="n">
         <v>1.06</v>
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU59" t="n">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>0.59</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AU60" t="n">
         <v>0</v>
@@ -12877,7 +12877,7 @@
         <v>2.6</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT61" t="n">
         <v>2.12</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT62" t="n">
         <v>0.88</v>
@@ -13689,10 +13689,10 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU65" t="n">
         <v>0</v>
@@ -14298,7 +14298,7 @@
         <v>0.8</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT68" t="n">
         <v>0.88</v>
@@ -14707,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU70" t="n">
         <v>0</v>
@@ -14910,7 +14910,7 @@
         <v>1.29</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU71" t="n">
         <v>0</v>
@@ -15110,10 +15110,10 @@
         <v>1.4</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU72" t="n">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT73" t="n">
         <v>1.06</v>
@@ -15519,7 +15519,7 @@
         <v>2.13</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AU74" t="n">
         <v>0</v>
@@ -15719,7 +15719,7 @@
         <v>1.86</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT75" t="n">
         <v>1.88</v>
@@ -15922,10 +15922,10 @@
         <v>1.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU76" t="n">
         <v>0</v>
@@ -16125,7 +16125,7 @@
         <v>2</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT77" t="n">
         <v>1.59</v>
@@ -16328,10 +16328,10 @@
         <v>2.6</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AU78" t="n">
         <v>0</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT79" t="n">
         <v>0.41</v>
@@ -16737,7 +16737,7 @@
         <v>2</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU80" t="n">
         <v>0</v>
@@ -16937,10 +16937,10 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AU81" t="n">
         <v>0</v>
@@ -17143,7 +17143,7 @@
         <v>0.59</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU82" t="n">
         <v>0</v>
@@ -17346,7 +17346,7 @@
         <v>2</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AU83" t="n">
         <v>0</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT85" t="n">
         <v>1.06</v>
@@ -17952,7 +17952,7 @@
         <v>2.29</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT86" t="n">
         <v>2.12</v>
@@ -18361,7 +18361,7 @@
         <v>2.59</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU88" t="n">
         <v>0</v>
@@ -18561,10 +18561,10 @@
         <v>0</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AU89" t="n">
         <v>0</v>
@@ -18967,10 +18967,10 @@
         <v>1.71</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU91" t="n">
         <v>0</v>
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT92" t="n">
         <v>0.41</v>
@@ -19376,7 +19376,7 @@
         <v>2.59</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU93" t="n">
         <v>0</v>
@@ -19779,7 +19779,7 @@
         <v>2.38</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT95" t="n">
         <v>2.12</v>
@@ -19982,10 +19982,10 @@
         <v>1.63</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU96" t="n">
         <v>0</v>
@@ -20185,10 +20185,10 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AU97" t="n">
         <v>0</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU98" t="n">
         <v>0</v>
@@ -20591,10 +20591,10 @@
         <v>0.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU99" t="n">
         <v>0</v>
@@ -20997,10 +20997,10 @@
         <v>1.43</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU101" t="n">
         <v>0</v>
@@ -21200,7 +21200,7 @@
         <v>2.11</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT102" t="n">
         <v>2.12</v>
@@ -21609,7 +21609,7 @@
         <v>2</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AU104" t="n">
         <v>0</v>
@@ -21812,7 +21812,7 @@
         <v>2.59</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AU105" t="n">
         <v>0</v>
@@ -22012,7 +22012,7 @@
         <v>0.57</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT106" t="n">
         <v>0.88</v>
@@ -22421,7 +22421,7 @@
         <v>2</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU108" t="n">
         <v>0</v>
@@ -22824,10 +22824,10 @@
         <v>0.67</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU110" t="n">
         <v>0</v>
@@ -23027,10 +23027,10 @@
         <v>1.25</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU111" t="n">
         <v>0</v>
@@ -23230,7 +23230,7 @@
         <v>0.33</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT112" t="n">
         <v>0.41</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AU113" t="n">
         <v>0</v>
@@ -23636,10 +23636,10 @@
         <v>1.89</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AU114" t="n">
         <v>2.56</v>
@@ -24045,7 +24045,7 @@
         <v>2</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU116" t="n">
         <v>0.75</v>
@@ -24245,7 +24245,7 @@
         <v>0.3</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT117" t="n">
         <v>0.41</v>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU118" t="n">
         <v>2.33</v>
@@ -24854,7 +24854,7 @@
         <v>0.44</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT120" t="n">
         <v>0.88</v>
@@ -25060,7 +25060,7 @@
         <v>1.29</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AU121" t="n">
         <v>0</v>
@@ -25260,10 +25260,10 @@
         <v>1.22</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU122" t="n">
         <v>0</v>
@@ -25463,7 +25463,7 @@
         <v>2.2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT123" t="n">
         <v>2.12</v>
@@ -25666,10 +25666,10 @@
         <v>1.78</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU124" t="n">
         <v>2.08</v>
@@ -25869,10 +25869,10 @@
         <v>0</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AU125" t="n">
         <v>1.45</v>
@@ -26075,7 +26075,7 @@
         <v>0.59</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU126" t="n">
         <v>0</v>
@@ -26275,7 +26275,7 @@
         <v>2.2</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT127" t="n">
         <v>1.88</v>
@@ -26478,10 +26478,10 @@
         <v>1.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU128" t="n">
         <v>0</v>
@@ -26681,7 +26681,7 @@
         <v>1.73</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT129" t="n">
         <v>1.59</v>
@@ -26887,7 +26887,7 @@
         <v>1.29</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AU130" t="n">
         <v>1.42</v>
@@ -27293,7 +27293,7 @@
         <v>2.59</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU132" t="n">
         <v>1.45</v>
@@ -27696,7 +27696,7 @@
         <v>2</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT134" t="n">
         <v>1.88</v>
@@ -27899,10 +27899,10 @@
         <v>1.27</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU135" t="n">
         <v>1.7</v>
@@ -28105,7 +28105,7 @@
         <v>0.59</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AU136" t="n">
         <v>1.45</v>
@@ -28305,10 +28305,10 @@
         <v>1.82</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU137" t="n">
         <v>1.63</v>
@@ -28711,10 +28711,10 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU139" t="n">
         <v>1.89</v>
@@ -29120,7 +29120,7 @@
         <v>2.13</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AU141" t="n">
         <v>0.73</v>
@@ -29320,7 +29320,7 @@
         <v>0.25</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT142" t="n">
         <v>0.41</v>
@@ -29726,7 +29726,7 @@
         <v>1.67</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT144" t="n">
         <v>1.59</v>
@@ -29932,7 +29932,7 @@
         <v>1.29</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU145" t="n">
         <v>1.42</v>
@@ -30135,7 +30135,7 @@
         <v>1</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU146" t="n">
         <v>1.69</v>
@@ -30335,7 +30335,7 @@
         <v>0.67</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT147" t="n">
         <v>1.06</v>
@@ -30538,10 +30538,10 @@
         <v>0.91</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU148" t="n">
         <v>1.61</v>
@@ -30741,7 +30741,7 @@
         <v>1.92</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT149" t="n">
         <v>1.88</v>
@@ -31150,7 +31150,7 @@
         <v>2.13</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU151" t="n">
         <v>1.24</v>
@@ -31350,7 +31350,7 @@
         <v>0.7</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT152" t="n">
         <v>1.06</v>
@@ -31756,7 +31756,7 @@
         <v>1.77</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT154" t="n">
         <v>1.59</v>
@@ -31962,7 +31962,7 @@
         <v>2.59</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AU155" t="n">
         <v>1.74</v>
@@ -32165,7 +32165,7 @@
         <v>2</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AU156" t="n">
         <v>1.48</v>
@@ -32571,7 +32571,7 @@
         <v>2</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU158" t="n">
         <v>1.47</v>
@@ -32974,7 +32974,7 @@
         <v>0.29</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT160" t="n">
         <v>0.41</v>
@@ -33177,10 +33177,10 @@
         <v>1.15</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU161" t="n">
         <v>1.43</v>
@@ -33583,10 +33583,10 @@
         <v>0.83</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU163" t="n">
         <v>1.47</v>
@@ -33789,7 +33789,7 @@
         <v>0.59</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AU164" t="n">
         <v>1.16</v>
@@ -33992,7 +33992,7 @@
         <v>1.29</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AU165" t="n">
         <v>1.3</v>
@@ -34195,7 +34195,7 @@
         <v>2.59</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU166" t="n">
         <v>1.78</v>
@@ -34395,7 +34395,7 @@
         <v>1.64</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT167" t="n">
         <v>1.59</v>
@@ -34598,7 +34598,7 @@
         <v>0.67</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT168" t="n">
         <v>0.88</v>
@@ -34801,7 +34801,7 @@
         <v>0.64</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT169" t="n">
         <v>1.06</v>
@@ -35207,10 +35207,10 @@
         <v>0.27</v>
       </c>
       <c r="AS171" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AU171" t="n">
         <v>1.25</v>
@@ -35413,7 +35413,7 @@
         <v>1.29</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU172" t="n">
         <v>0.93</v>
@@ -35613,10 +35613,10 @@
         <v>1.71</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU173" t="n">
         <v>1.76</v>
@@ -35816,10 +35816,10 @@
         <v>0.5</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU174" t="n">
         <v>1.43</v>
@@ -36019,10 +36019,10 @@
         <v>1.71</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AU175" t="n">
         <v>1.64</v>
@@ -36222,7 +36222,7 @@
         <v>2.13</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT176" t="n">
         <v>2.12</v>
@@ -36628,7 +36628,7 @@
         <v>0.62</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT178" t="n">
         <v>0.88</v>
@@ -37034,10 +37034,10 @@
         <v>1.6</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AU180" t="n">
         <v>1.49</v>
@@ -37240,7 +37240,7 @@
         <v>2</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU181" t="n">
         <v>1.76</v>
@@ -37440,7 +37440,7 @@
         <v>1.87</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT182" t="n">
         <v>1.88</v>
@@ -38458,7 +38458,7 @@
         <v>2.13</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU187" t="n">
         <v>1.41</v>
@@ -38658,10 +38658,10 @@
         <v>0.67</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU188" t="n">
         <v>1.42</v>
@@ -38861,10 +38861,10 @@
         <v>0.25</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AU189" t="n">
         <v>1.63</v>
@@ -39064,10 +39064,10 @@
         <v>1.13</v>
       </c>
       <c r="AS190" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU190" t="n">
         <v>1.47</v>
@@ -39267,10 +39267,10 @@
         <v>1.69</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AU191" t="n">
         <v>1.39</v>
@@ -39470,10 +39470,10 @@
         <v>1.6</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU192" t="n">
         <v>1.57</v>
@@ -39673,10 +39673,10 @@
         <v>0.67</v>
       </c>
       <c r="AS193" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AU193" t="n">
         <v>1.76</v>
@@ -39938,7 +39938,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>2515473</v>
+        <v>2515469</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -39958,12 +39958,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Newry City AFC</t>
+          <t>Coleraine</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Cliftonville</t>
+          <t>Larne</t>
         </is>
       </c>
       <c r="I195" t="n">
@@ -39976,164 +39976,164 @@
         <v>0</v>
       </c>
       <c r="L195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>3</v>
+      </c>
+      <c r="R195" t="n">
+        <v>9</v>
+      </c>
+      <c r="S195" t="n">
+        <v>12</v>
+      </c>
+      <c r="T195" t="n">
+        <v>4</v>
+      </c>
+      <c r="U195" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V195" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X195" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AS195" t="n">
         <v>2</v>
       </c>
-      <c r="N195" t="n">
+      <c r="AT195" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF195" t="n">
         <v>3</v>
       </c>
-      <c r="O195" t="inlineStr">
-        <is>
-          <t>['77']</t>
-        </is>
-      </c>
-      <c r="P195" t="inlineStr">
-        <is>
-          <t>['75', '81']</t>
-        </is>
-      </c>
-      <c r="Q195" t="n">
-        <v>2</v>
-      </c>
-      <c r="R195" t="n">
+      <c r="BG195" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH195" t="n">
         <v>3</v>
       </c>
-      <c r="S195" t="n">
-        <v>5</v>
-      </c>
-      <c r="T195" t="n">
-        <v>7</v>
-      </c>
-      <c r="U195" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="V195" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W195" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X195" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Y195" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Z195" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AA195" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AB195" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC195" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD195" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE195" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AF195" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG195" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH195" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AI195" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AJ195" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AK195" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AL195" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AM195" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AN195" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO195" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AP195" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AQ195" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AR195" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS195" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AT195" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AU195" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AV195" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AW195" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AX195" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY195" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AZ195" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BA195" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="BB195" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="BC195" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD195" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="BE195" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF195" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG195" t="n">
+      <c r="BI195" t="n">
         <v>6</v>
-      </c>
-      <c r="BH195" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI195" t="n">
-        <v>5</v>
       </c>
       <c r="BJ195" t="n">
         <v>6</v>
       </c>
       <c r="BK195" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196">
@@ -40141,7 +40141,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>2515469</v>
+        <v>2515470</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -40161,12 +40161,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Coleraine</t>
+          <t>Crusaders</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Larne</t>
+          <t>Carrick Rangers</t>
         </is>
       </c>
       <c r="I196" t="n">
@@ -40179,140 +40179,140 @@
         <v>0</v>
       </c>
       <c r="L196" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M196" t="n">
         <v>0</v>
       </c>
       <c r="N196" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
+          <t>['66', '80', '87']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P196" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q196" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R196" t="n">
+        <v>2</v>
+      </c>
+      <c r="S196" t="n">
         <v>9</v>
       </c>
-      <c r="S196" t="n">
-        <v>12</v>
-      </c>
       <c r="T196" t="n">
-        <v>4</v>
+        <v>1.72</v>
       </c>
       <c r="U196" t="n">
-        <v>1.9</v>
+        <v>2.55</v>
       </c>
       <c r="V196" t="n">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="W196" t="n">
-        <v>1.54</v>
+        <v>1.27</v>
       </c>
       <c r="X196" t="n">
-        <v>2.36</v>
+        <v>3.4</v>
       </c>
       <c r="Y196" t="n">
-        <v>3.54</v>
+        <v>2.31</v>
       </c>
       <c r="Z196" t="n">
-        <v>1.27</v>
+        <v>1.56</v>
       </c>
       <c r="AA196" t="n">
-        <v>8.25</v>
+        <v>4.9</v>
       </c>
       <c r="AB196" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="AC196" t="n">
-        <v>3.15</v>
+        <v>1.3</v>
       </c>
       <c r="AD196" t="n">
-        <v>2.95</v>
+        <v>5</v>
       </c>
       <c r="AE196" t="n">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="AF196" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="AG196" t="n">
-        <v>6.2</v>
+        <v>19.75</v>
       </c>
       <c r="AH196" t="n">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AI196" t="n">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="AJ196" t="n">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AK196" t="n">
-        <v>1.53</v>
+        <v>2.32</v>
       </c>
       <c r="AL196" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AM196" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AN196" t="n">
-        <v>1.57</v>
+        <v>1.02</v>
       </c>
       <c r="AO196" t="n">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="AQ196" t="n">
-        <v>2.06</v>
+        <v>2.56</v>
       </c>
       <c r="AR196" t="n">
-        <v>2.19</v>
+        <v>0.93</v>
       </c>
       <c r="AS196" t="n">
-        <v>2</v>
+        <v>2.59</v>
       </c>
       <c r="AT196" t="n">
-        <v>2.12</v>
+        <v>0.88</v>
       </c>
       <c r="AU196" t="n">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="AV196" t="n">
-        <v>1.8</v>
+        <v>1.11</v>
       </c>
       <c r="AW196" t="n">
-        <v>3.67</v>
+        <v>2.72</v>
       </c>
       <c r="AX196" t="n">
-        <v>2.19</v>
+        <v>1.22</v>
       </c>
       <c r="AY196" t="n">
-        <v>7.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AZ196" t="n">
-        <v>1.92</v>
+        <v>5.1</v>
       </c>
       <c r="BA196" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="BB196" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="BC196" t="n">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="BD196" t="n">
         <v>2.75</v>
@@ -40321,22 +40321,22 @@
         <v>0</v>
       </c>
       <c r="BF196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG196" t="n">
         <v>3</v>
       </c>
-      <c r="BG196" t="n">
+      <c r="BH196" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK196" t="n">
         <v>7</v>
-      </c>
-      <c r="BH196" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI196" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ196" t="n">
-        <v>6</v>
-      </c>
-      <c r="BK196" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="197">
@@ -40344,7 +40344,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>2515470</v>
+        <v>2515473</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -40364,12 +40364,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Crusaders</t>
+          <t>Newry City AFC</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Carrick Rangers</t>
+          <t>Cliftonville</t>
         </is>
       </c>
       <c r="I197" t="n">
@@ -40382,164 +40382,164 @@
         <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N197" t="n">
         <v>3</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>['66', '80', '87']</t>
+          <t>['77']</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['75', '81']</t>
         </is>
       </c>
       <c r="Q197" t="n">
+        <v>2</v>
+      </c>
+      <c r="R197" t="n">
+        <v>3</v>
+      </c>
+      <c r="S197" t="n">
+        <v>5</v>
+      </c>
+      <c r="T197" t="n">
         <v>7</v>
       </c>
-      <c r="R197" t="n">
+      <c r="U197" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V197" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X197" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC197" t="n">
         <v>2</v>
       </c>
-      <c r="S197" t="n">
-        <v>9</v>
-      </c>
-      <c r="T197" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U197" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="V197" t="n">
-        <v>7</v>
-      </c>
-      <c r="W197" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X197" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y197" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="Z197" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AA197" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AB197" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC197" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD197" t="n">
+      <c r="BD197" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI197" t="n">
         <v>5</v>
       </c>
-      <c r="AE197" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF197" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG197" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="AH197" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI197" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ197" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK197" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AL197" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM197" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN197" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AO197" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AP197" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AQ197" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AR197" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AS197" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AT197" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AU197" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AV197" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AW197" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AX197" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AY197" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AZ197" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BA197" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="BB197" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BC197" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="BD197" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BE197" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF197" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG197" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH197" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI197" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ197" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="BK197" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198">
@@ -40946,6 +40946,1224 @@
       </c>
       <c r="BK199" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5722547</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Premiership</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45023.65625</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Cliftonville</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Coleraine</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
+      <c r="K200" t="n">
+        <v>2</v>
+      </c>
+      <c r="L200" t="n">
+        <v>2</v>
+      </c>
+      <c r="M200" t="n">
+        <v>2</v>
+      </c>
+      <c r="N200" t="n">
+        <v>4</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['45+2', '90+2']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['4', '60']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T200" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V200" t="n">
+        <v>4</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5722548</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Premiership</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45023.65625</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Larne</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Glentoran</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>2</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>2</v>
+      </c>
+      <c r="L201" t="n">
+        <v>2</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>2</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['15', '20']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V201" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5722549</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Premiership</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45023.65625</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Linfield</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Crusaders</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T202" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V202" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5722550</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Premiership</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45023.65625</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Carrick Rangers</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Newry City AFC</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>2</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>2</v>
+      </c>
+      <c r="N203" t="n">
+        <v>2</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['25', '36']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V203" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X203" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5722551</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Premiership</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45023.65625</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Glenavon</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Dungannon Swifts</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>2</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T204" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V204" t="n">
+        <v>6</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X204" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5722552</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Northern Ireland NIFL Premiership</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45023.65625</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Portadown</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Ballymena United</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T205" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X205" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Northern Ireland NIFL Premiership_20222023.xlsx
@@ -41010,13 +41010,13 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R200" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S200" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T200" t="n">
         <v>2.75</v>
@@ -41133,22 +41133,22 @@
         <v>0</v>
       </c>
       <c r="BF200" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG200" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH200" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI200" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ200" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BK200" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201">
@@ -41213,13 +41213,13 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R201" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S201" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T201" t="n">
         <v>2.5</v>
@@ -41336,22 +41336,22 @@
         <v>0</v>
       </c>
       <c r="BF201" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG201" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH201" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI201" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ201" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK201" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202">
@@ -41416,13 +41416,13 @@
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R202" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S202" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="T202" t="n">
         <v>2.3</v>
@@ -41539,22 +41539,22 @@
         <v>0</v>
       </c>
       <c r="BF202" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG202" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH202" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI202" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ202" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK202" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203">
@@ -41619,13 +41619,13 @@
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R203" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S203" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T203" t="n">
         <v>2.2</v>
@@ -41742,22 +41742,22 @@
         <v>0</v>
       </c>
       <c r="BF203" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BG203" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH203" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BI203" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ203" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="BK203" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204">
@@ -41822,13 +41822,13 @@
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R204" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S204" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T204" t="n">
         <v>1.91</v>
@@ -41945,22 +41945,22 @@
         <v>2.75</v>
       </c>
       <c r="BF204" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG204" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH204" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI204" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ204" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK204" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205">
@@ -42025,13 +42025,13 @@
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R205" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S205" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T205" t="n">
         <v>3.4</v>
@@ -42148,22 +42148,22 @@
         <v>2.77</v>
       </c>
       <c r="BF205" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG205" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH205" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI205" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ205" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK205" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
